--- a/biology/Botanique/Promenade_Gibran-Khalil-Gibran/Promenade_Gibran-Khalil-Gibran.xlsx
+++ b/biology/Botanique/Promenade_Gibran-Khalil-Gibran/Promenade_Gibran-Khalil-Gibran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La promenade Gibran-Khalil-Gibran, anciennement promenade des quais de Grenelle et André-Citroën, est un espace vert situé dans le 15e arrondissement de Paris, le long du Front de Seine.
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La promenade est accessible par le quai de Grenelle et le quai André-Citroën, qu'elle longe, ainsi que le Front de Seine. Elle est principalement desservie, côté quai de Grenelle, par la ligne 6 (Bir-Hakeim) et côté quai André-Citroën, par la ligne C du RER (gare de Javel)[1].
-Le site est ouvert 24 heures sur 24[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La promenade est accessible par le quai de Grenelle et le quai André-Citroën, qu'elle longe, ainsi que le Front de Seine. Elle est principalement desservie, côté quai de Grenelle, par la ligne 6 (Bir-Hakeim) et côté quai André-Citroën, par la ligne C du RER (gare de Javel).
+Le site est ouvert 24 heures sur 24.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La promenade a reçu son nom actuel en 2017, en hommage à Gibran Khalil Gibran (1883-1931), décrit sur le panneau comme « [p]oète, artiste-peintre et humaniste libanais ».
 </t>
@@ -575,9 +591,11 @@
           <t>Flore et aménagement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Des prunus subbirthellas [sic], des rosiers et des massifs de plantes de terre de bruyère se succèdent tout au long de cette promenade »[1]. Un cèdre a été planté côté quai André-Citroën.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Des prunus subbirthellas [sic], des rosiers et des massifs de plantes de terre de bruyère se succèdent tout au long de cette promenade ». Un cèdre a été planté côté quai André-Citroën.
 Côté quai de Grenelle se trouve depuis mars 2000 une lanterne japonaise en pierre offerte par la ville de Kyoto[a].
 </t>
         </is>
